--- a/Maids.cc RPA Test/Output/summary.xlsx
+++ b/Maids.cc RPA Test/Output/summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliae\OneDrive\Documents\UiPath\EmailProcessorBotFlow\Maids.cc RPA Test\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliae\OneDrive\Desktop\Maids-RPA-Final-Test-Project\Maids.cc RPA Test\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -316,13 +316,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="1" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
